--- a/Digital_Data_tables3.xlsx
+++ b/Digital_Data_tables3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balqees.s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE06B84-F371-4822-B36C-DEB4E07D0A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F0279-8B38-4F20-A00D-0C103FCEBE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="2" r:id="rId1"/>
@@ -55,45 +55,9 @@
     <t>Arabic</t>
   </si>
   <si>
-    <t>الخدمات العامة General Services</t>
-  </si>
-  <si>
     <t>إجابة أخرى Other (يرجى التحديد please specify)</t>
   </si>
   <si>
-    <t>تسجيل عقود الايجار Register Lease Contracts</t>
-  </si>
-  <si>
-    <t>تثبيت علائم Demarcation Request</t>
-  </si>
-  <si>
-    <t>التحري الشامل Comprehensive Investigation</t>
-  </si>
-  <si>
-    <t>تعديل عقد الإيجار Modify Lease Contract</t>
-  </si>
-  <si>
-    <t>تجديد عقد الإيجار Renew Lease Contract</t>
-  </si>
-  <si>
-    <t>تفتيش إنشائي Structural Inspection</t>
-  </si>
-  <si>
-    <t>خدمات ادارة الصحة العامة الالكترونيه PHD Generic Services Request</t>
-  </si>
-  <si>
-    <t>شهادة عدم ممانعة بنية تحتية Infrastructure N.O.C Request</t>
-  </si>
-  <si>
-    <t>إصدار/تجديد/إلغاء شهادة الصحة المهنية Occupational Health Certificate</t>
-  </si>
-  <si>
-    <t>طلب شهادات المنسوب Leveling Certificates Request</t>
-  </si>
-  <si>
-    <t>تسجيل العمال Register Workers</t>
-  </si>
-  <si>
     <t>العربية Arabic</t>
   </si>
   <si>
@@ -317,6 +281,42 @@
   </si>
   <si>
     <t>ARABIC</t>
+  </si>
+  <si>
+    <t>خدمة1</t>
+  </si>
+  <si>
+    <t>خدمة2</t>
+  </si>
+  <si>
+    <t>خدمة3</t>
+  </si>
+  <si>
+    <t>خدمة4</t>
+  </si>
+  <si>
+    <t>خدمة5</t>
+  </si>
+  <si>
+    <t>خدمة6</t>
+  </si>
+  <si>
+    <t>خدمة7</t>
+  </si>
+  <si>
+    <t>خدمة8</t>
+  </si>
+  <si>
+    <t>خدمة9</t>
+  </si>
+  <si>
+    <t>خدمة10</t>
+  </si>
+  <si>
+    <t>خدمة11</t>
+  </si>
+  <si>
+    <t>خدمة12</t>
   </si>
 </sst>
 </file>
@@ -461,343 +461,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -1032,25 +696,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:B4" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="ARABIC" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="ARABIC" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="A1:B14" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="ARABIC" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="ARABIC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,21 +1079,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1437,7 +1101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1445,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1465,132 +1129,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D2724-7289-4790-BBA1-A766A8B5A50D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B182">
     <sortCondition ref="A1:A182"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1606,34 +1271,34 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1652,42 +1317,42 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1702,38 +1367,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209C8E2-8A3C-4CDB-9C6E-E56644C3E506}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1752,348 +1417,348 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="133.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="133.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.109375" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B32" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
